--- a/data/trans_orig/P14B98-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B98-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8370C96F-038E-44F7-B0F6-85DA0DA9D9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A01195C0-7D2D-487C-B7E4-C174B0AB0B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9DE6E3A8-2BE9-4014-AB02-5D38A0E9696F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D34D34DC-841F-47D3-9019-D2615B8E9BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="84">
   <si>
     <t>Población cuya otra enfermedad le limita 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -141,19 +141,19 @@
     <t>63,13%</t>
   </si>
   <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -162,19 +162,19 @@
     <t>36,87%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -192,19 +192,25 @@
     <t>74,3%</t>
   </si>
   <si>
+    <t>23,63%</t>
+  </si>
+  <si>
     <t>58,43%</t>
   </si>
   <si>
-    <t>18,02%</t>
+    <t>18,42%</t>
   </si>
   <si>
     <t>25,7%</t>
   </si>
   <si>
+    <t>76,37%</t>
+  </si>
+  <si>
     <t>41,57%</t>
   </si>
   <si>
-    <t>81,98%</t>
+    <t>81,58%</t>
   </si>
   <si>
     <t>63,93%</t>
@@ -219,7 +225,7 @@
     <t>45,87%</t>
   </si>
   <si>
-    <t>18,38%</t>
+    <t>18,4%</t>
   </si>
   <si>
     <t>26,65%</t>
@@ -228,61 +234,61 @@
     <t>54,13%</t>
   </si>
   <si>
-    <t>81,62%</t>
+    <t>81,6%</t>
   </si>
   <si>
     <t>67,48%</t>
   </si>
   <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>55,84%</t>
   </si>
   <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
   </si>
   <si>
     <t>62,44%</t>
   </si>
   <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
   </si>
   <si>
     <t>32,52%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
   </si>
   <si>
     <t>44,16%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
   </si>
   <si>
     <t>37,56%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
   </si>
 </sst>
 </file>
@@ -694,7 +700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEDBD62-0D3D-4FE4-92CF-9112F03F47FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6B976D-B345-47D1-91F8-87CA255DD70C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2159,7 +2165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4939C54-C6EB-49D3-BAE5-589361108C6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E64F2CE-BDC6-42BC-923D-221AFCAE0880}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3013,7 +3019,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -3040,10 +3046,10 @@
         <v>2991</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -3061,13 +3067,13 @@
         <v>1035</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3091,13 +3097,13 @@
         <v>2127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,7 +3201,7 @@
         <v>1862</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>17</v>
@@ -3246,7 +3252,7 @@
         <v>1050</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
@@ -3320,7 +3326,7 @@
         <v>2804</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>17</v>
@@ -3335,7 +3341,7 @@
         <v>1132</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>17</v>
@@ -3353,7 +3359,7 @@
         <v>48</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -3371,7 +3377,7 @@
         <v>1019</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>17</v>
@@ -3386,7 +3392,7 @@
         <v>1335</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
@@ -3407,7 +3413,7 @@
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3481,13 @@
         <v>8690</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -3490,13 +3496,13 @@
         <v>5499</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M28" s="7">
         <v>13</v>
@@ -3505,13 +3511,13 @@
         <v>14189</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3532,13 @@
         <v>4187</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -3541,13 +3547,13 @@
         <v>4349</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -3556,13 +3562,13 @@
         <v>8536</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B98-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B98-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A01195C0-7D2D-487C-B7E4-C174B0AB0B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A871B243-E499-47BA-9010-9147C6F74F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D34D34DC-841F-47D3-9019-D2615B8E9BB4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{22E6674D-3874-4901-92B4-5EFD075EF947}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -141,19 +141,19 @@
     <t>63,13%</t>
   </si>
   <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -162,25 +162,25 @@
     <t>36,87%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya otra enfermedad le limita 2 en 2015 (Tasa respuesta: 0,32%)</t>
+    <t>Población cuya otra enfermedad le limita 2 en 2016 (Tasa respuesta: 0,32%)</t>
   </si>
   <si>
     <t>62,57%</t>
@@ -240,55 +240,55 @@
     <t>67,48%</t>
   </si>
   <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>55,84%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>62,44%</t>
   </si>
   <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>32,52%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
   </si>
   <si>
     <t>44,16%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>37,56%</t>
   </si>
   <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6B976D-B345-47D1-91F8-87CA255DD70C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0283774A-95DC-472F-A31C-7888E32D35B1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2165,7 +2165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E64F2CE-BDC6-42BC-923D-221AFCAE0880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A70D218-23C6-4C07-9E21-23AE4418A838}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
